--- a/artfynd/A 69811-2021.xlsx
+++ b/artfynd/A 69811-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111476521</v>
+        <v>111477288</v>
       </c>
       <c r="B2" t="n">
         <v>96368</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>501730.3498268744</v>
+        <v>501751.6128161916</v>
       </c>
       <c r="R2" t="n">
-        <v>7135682.235808767</v>
+        <v>7135681.381103262</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,19 +780,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111477288</v>
+        <v>111476521</v>
       </c>
       <c r="B3" t="n">
         <v>96368</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>501751.6128161916</v>
+        <v>501730.3498268744</v>
       </c>
       <c r="R3" t="n">
-        <v>7135681.381103262</v>
+        <v>7135682.235808767</v>
       </c>
       <c r="S3" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,12 +892,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>

--- a/artfynd/A 69811-2021.xlsx
+++ b/artfynd/A 69811-2021.xlsx
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111477288</v>
+        <v>111476521</v>
       </c>
       <c r="B2" t="n">
         <v>96368</v>
@@ -720,13 +720,13 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>501751.6128161916</v>
+        <v>501730.3498268744</v>
       </c>
       <c r="R2" t="n">
-        <v>7135681.381103262</v>
+        <v>7135682.235808767</v>
       </c>
       <c r="S2" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -780,19 +780,19 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Elvira Klang</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
+          <t>Signe Propst</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111476521</v>
+        <v>111477288</v>
       </c>
       <c r="B3" t="n">
         <v>96368</v>
@@ -832,13 +832,13 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>501730.3498268744</v>
+        <v>501751.6128161916</v>
       </c>
       <c r="R3" t="n">
-        <v>7135682.235808767</v>
+        <v>7135681.381103262</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -892,12 +892,12 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Signe Propst</t>
+          <t>Elvira Klang, Tore Dahlberg, Filippa Paperin, Karl Soler Kinnerbäck, Melvin Lewin, Iris Elmér, Signe Propst, Elicia Olsson, Elias Blad, Astrid Blomberg, Jonathan Frendel, Kai Strömberg</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
